--- a/data_processed/20250807/BTCUSDQMOMENT_20250807.xlsx
+++ b/data_processed/20250807/BTCUSDQMOMENT_20250807.xlsx
@@ -1110,10 +1110,18 @@
       <c r="H18" t="n">
         <v>15.27333756516148</v>
       </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>0.1144803863398214</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.1496809867195149</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-0.1137402192542868</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2.174913384159385</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">

--- a/data_processed/20250807/BTCUSDQMOMENT_20250807.xlsx
+++ b/data_processed/20250807/BTCUSDQMOMENT_20250807.xlsx
@@ -524,10 +524,18 @@
       <c r="H2" t="n">
         <v>11.59848028834861</v>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>-0.1510628729506125</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.2917876456392605</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.250788718282305</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.387835162127833</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1152,10 +1160,18 @@
       <c r="H19" t="n">
         <v>346.3862719504211</v>
       </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>-0.3738853921488089</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.390390469269369</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.06626720357243029</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.919622844000926</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">

--- a/data_processed/20250807/BTCUSDQMOMENT_20250807.xlsx
+++ b/data_processed/20250807/BTCUSDQMOMENT_20250807.xlsx
@@ -1202,10 +1202,18 @@
       <c r="H20" t="n">
         <v>6.340092180308363</v>
       </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>-0.4171720644817287</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.3357195371335476</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.2372264367509181</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2.175867269640444</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_processed/20250807/BTCUSDQMOMENT_20250807.xlsx
+++ b/data_processed/20250807/BTCUSDQMOMENT_20250807.xlsx
@@ -552,19 +552,19 @@
         <v>0.136986301369863</v>
       </c>
       <c r="D3" t="n">
-        <v>118844.7883833043</v>
+        <v>118855.5795010159</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02545627473376219</v>
+        <v>0.0265629152391114</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1713937192337925</v>
+        <v>0.160564668370075</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.161051071920631</v>
+        <v>-0.9380236697000435</v>
       </c>
       <c r="H3" t="n">
-        <v>35.4583623774143</v>
+        <v>10.29863907328862</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -620,19 +620,19 @@
         <v>0.3095890410958904</v>
       </c>
       <c r="D5" t="n">
-        <v>120301.594873982</v>
+        <v>120516.6307708451</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.001846882530694512</v>
+        <v>0.006901952297568422</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2409057028377411</v>
+        <v>0.2018481043281773</v>
       </c>
       <c r="G5" t="n">
-        <v>-1.961178114688534</v>
+        <v>-0.658992213993604</v>
       </c>
       <c r="H5" t="n">
-        <v>19.24492162974856</v>
+        <v>7.827816034389761</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -654,19 +654,19 @@
         <v>0.3863013698630137</v>
       </c>
       <c r="D6" t="n">
-        <v>120943.9405180889</v>
+        <v>120952.5460553045</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.008482964546758434</v>
+        <v>-0.008096012746467781</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2438282605851858</v>
+        <v>0.2418200688328248</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.303583050935323</v>
+        <v>-1.233104038590722</v>
       </c>
       <c r="H6" t="n">
-        <v>11.0511353219654</v>
+        <v>10.29029350694815</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -688,19 +688,19 @@
         <v>0.4821917808219178</v>
       </c>
       <c r="D7" t="n">
-        <v>121627.0317116092</v>
+        <v>122265.2935309192</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.0584119131468815</v>
+        <v>-0.0341771056267732</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4559617019829713</v>
+        <v>0.3473456404648596</v>
       </c>
       <c r="G7" t="n">
-        <v>-2.865349275335907</v>
+        <v>-1.880787186326392</v>
       </c>
       <c r="H7" t="n">
-        <v>18.01715343801836</v>
+        <v>9.654951688688373</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -722,19 +722,19 @@
         <v>0.8082191780821918</v>
       </c>
       <c r="D8" t="n">
-        <v>122702.5799369606</v>
+        <v>122606.5212370685</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.02814286684256055</v>
+        <v>-0.03053021936026282</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2017526931074501</v>
+        <v>0.208334693899705</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.7077788106206373</v>
+        <v>-0.8598497897344676</v>
       </c>
       <c r="H8" t="n">
-        <v>6.113021337977071</v>
+        <v>6.965659856515654</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -756,19 +756,19 @@
         <v>0.8849315068493151</v>
       </c>
       <c r="D9" t="n">
-        <v>124167.5470607498</v>
+        <v>124174.0605675151</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.06900842877974939</v>
+        <v>-0.06696060077296213</v>
       </c>
       <c r="F9" t="n">
-        <v>0.378910737060963</v>
+        <v>0.3618027371121619</v>
       </c>
       <c r="G9" t="n">
-        <v>-2.441815024367309</v>
+        <v>-2.115727783351248</v>
       </c>
       <c r="H9" t="n">
-        <v>17.17908794272964</v>
+        <v>13.8010058011772</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -790,19 +790,19 @@
         <v>1.134246575342466</v>
       </c>
       <c r="D10" t="n">
-        <v>125651.9394085095</v>
+        <v>125658.8905208434</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.1034029637168166</v>
+        <v>-0.1021339210113584</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4433189386793767</v>
+        <v>0.4341900863570095</v>
       </c>
       <c r="G10" t="n">
-        <v>-2.013090985180163</v>
+        <v>-1.898820265025255</v>
       </c>
       <c r="H10" t="n">
-        <v>10.74029631326984</v>
+        <v>9.725192333993247</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -824,19 +824,19 @@
         <v>1.380821917808219</v>
       </c>
       <c r="D11" t="n">
-        <v>127751.1751693292</v>
+        <v>127728.4235471473</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.1675190020151081</v>
+        <v>-0.1788088683625924</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6748710347451081</v>
+        <v>0.761164008700197</v>
       </c>
       <c r="G11" t="n">
-        <v>-2.213157315435277</v>
+        <v>-2.611420253892948</v>
       </c>
       <c r="H11" t="n">
-        <v>9.469293878547278</v>
+        <v>12.75637441717517</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -1062,19 +1062,19 @@
         <v>0.02191780821917808</v>
       </c>
       <c r="D17" t="n">
-        <v>118146.9459354093</v>
+        <v>118151.9570776293</v>
       </c>
       <c r="E17" t="n">
-        <v>0.08904618892672227</v>
+        <v>0.08976073939149479</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1186735442686225</v>
+        <v>0.1132811188622625</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.9901044357136721</v>
+        <v>-0.7824408353894894</v>
       </c>
       <c r="H17" t="n">
-        <v>10.06926681179523</v>
+        <v>6.530732845454605</v>
       </c>
       <c r="I17" t="n">
         <v>0.3691148122630959</v>
@@ -1104,19 +1104,19 @@
         <v>0.0410958904109589</v>
       </c>
       <c r="D18" t="n">
-        <v>118151.3329103422</v>
+        <v>118205.3553134249</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0577667396595726</v>
+        <v>0.06127316797339297</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1373173431746314</v>
+        <v>0.1219528488774463</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.456519691885013</v>
+        <v>-0.4946691996448183</v>
       </c>
       <c r="H18" t="n">
-        <v>15.27333756516148</v>
+        <v>7.238162325570007</v>
       </c>
       <c r="I18" t="n">
         <v>0.1144803863398214</v>
@@ -1146,19 +1146,19 @@
         <v>0.07945205479452055</v>
       </c>
       <c r="D19" t="n">
-        <v>118801.2852486259</v>
+        <v>119005.9931964766</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0348986479234932</v>
+        <v>0.05704074090138368</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4203302016996116</v>
+        <v>0.1359210258614454</v>
       </c>
       <c r="G19" t="n">
-        <v>-14.60040723324265</v>
+        <v>-0.459548467173013</v>
       </c>
       <c r="H19" t="n">
-        <v>346.3862719504211</v>
+        <v>6.865036403677108</v>
       </c>
       <c r="I19" t="n">
         <v>-0.3738853921488089</v>

--- a/data_processed/20250807/BTCUSDQMOMENT_20250807.xlsx
+++ b/data_processed/20250807/BTCUSDQMOMENT_20250807.xlsx
@@ -566,10 +566,18 @@
       <c r="H3" t="n">
         <v>10.29863907328862</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>-0.3918775745095659</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.2803252677862076</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.06026498603299017</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.397559387861127</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">

--- a/data_processed/20250807/BTCUSDQMOMENT_20250807.xlsx
+++ b/data_processed/20250807/BTCUSDQMOMENT_20250807.xlsx
@@ -608,10 +608,18 @@
       <c r="H4" t="n">
         <v>10.02007597727468</v>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>-0.4050618212753369</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.4928632049788898</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.4256430241151026</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.652482080263422</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
